--- a/Save_Data_experimento_v3/Save_Data/Consolidado estimativas de posição.xlsx
+++ b/Save_Data_experimento_v3/Save_Data/Consolidado estimativas de posição.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Meu Drive\UTFPR\2021.1\TCC1\Codigos\Save_Data_experimento_v3\Save_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3961BA-FCE4-44AD-864C-A2A77A010B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AB2B26-67BB-422E-9389-74E58B7CBC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -253,6 +253,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,69 +378,14 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Média</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -448,18 +397,20 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$B$14</c:f>
+              <c:f>Planilha1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Média</c:v>
+                  <c:v>3nos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:tint val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,23 +448,32 @@
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="dk1"/>
                 </a:solidFill>
-                <a:round/>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0.22017683343049582</c:v>
@@ -524,6 +484,194 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A0FC-4B99-8050-C48CBFAAEC1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$F$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.081783702134567E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$F$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.081783702134567E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.21130358727413007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5166-4A80-92B8-1A155A0C44C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$I$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1957000770866576E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$I$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1957000770866576E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.22109965998573702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5166-4A80-92B8-1A155A0C44C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -547,6 +695,1047 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441192576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441192576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441190912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$L$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4825829458296384E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$L$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4825829458296384E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.34437491175528379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B93-4BF2-909E-39F2FE61BEF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$O$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.8155340857246902E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$O$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.8155340857246902E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.18157366380430523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3B93-4BF2-909E-39F2FE61BEF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$R$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.0541895706993826E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$R$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.0541895706993826E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.13902181441467173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3B93-4BF2-909E-39F2FE61BEF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441190912"/>
+        <c:axId val="441192576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441190912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441192576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441192576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441190912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$U$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>3.2151373607760235E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$U$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>3.2151373607760235E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.81349596531350488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C55-4CF0-A7BE-6F4E9E58E94D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$X$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5.2170673046704794E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$X$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5.2170673046704794E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.38024059807023303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C55-4CF0-A7BE-6F4E9E58E94D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$AA$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.7631245375381149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$AA$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.7631245375381149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AA$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.12294577672314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2C55-4CF0-A7BE-6F4E9E58E94D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441190912"/>
+        <c:axId val="441192576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441190912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -612,7 +1801,2739 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441190912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Planilha1!$C$17,Planilha1!$L$17,Planilha1!$U$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.1675375620675495E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4825829458296384E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2151373607760235E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Planilha1!$C$17,Planilha1!$L$17,Planilha1!$U$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.1675375620675495E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.4825829458296384E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.2151373607760235E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Planilha1!$B$2,Planilha1!$K$2,Planilha1!$T$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Planilha1!$C$14,Planilha1!$L$14,Planilha1!$U$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.22017683343049582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34437491175528379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81349596531350488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDBB-4AD5-88A5-CE5E34020E1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Planilha1!$F$17,Planilha1!$O$17,Planilha1!$X$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.081783702134567E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.8155340857246902E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.2170673046704794E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Planilha1!$F$17,Planilha1!$O$17,Planilha1!$X$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.081783702134567E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.8155340857246902E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.2170673046704794E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Planilha1!$B$2,Planilha1!$K$2,Planilha1!$T$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Planilha1!$F$14,Planilha1!$O$14,Planilha1!$X$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.21130358727413007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18157366380430523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38024059807023303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BDBB-4AD5-88A5-CE5E34020E1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Planilha1!$I$17,Planilha1!$R$17,Planilha1!$AA$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>7.1957000770866576E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0541895706993826E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.7631245375381149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Planilha1!$I$17,Planilha1!$R$17,Planilha1!$AA$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>7.1957000770866576E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0541895706993826E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.7631245375381149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Planilha1!$B$2,Planilha1!$K$2,Planilha1!$T$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Planilha1!$I$14,Planilha1!$R$14,Planilha1!$AA$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.22109965998573702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13902181441467173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12294577672314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BDBB-4AD5-88A5-CE5E34020E1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441190912"/>
+        <c:axId val="441192576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441190912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441192576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441192576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441190912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$C$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.1675375620675495E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$C$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.1675375620675495E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.22017683343049582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B1A-48DA-AAA2-7BF195146DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$L$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4825829458296384E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$L$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>1.4825829458296384E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.34437491175528379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B1A-48DA-AAA2-7BF195146DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$U$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>3.2151373607760235E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$U$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>3.2151373607760235E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.81349596531350488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B1A-48DA-AAA2-7BF195146DB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441190912"/>
+        <c:axId val="441192576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441190912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441192576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441192576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441190912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$F$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.081783702134567E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$F$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.081783702134567E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.21130358727413007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8507-4C74-A917-786293A14255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$O$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.8155340857246902E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$O$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.8155340857246902E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.18157366380430523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8507-4C74-A917-786293A14255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$X$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5.2170673046704794E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$X$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>5.2170673046704794E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.38024059807023303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8507-4C74-A917-786293A14255}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441190912"/>
+        <c:axId val="441192576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441190912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441192576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441192576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441190912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$I$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1957000770866576E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$I$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>7.1957000770866576E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.22109965998573702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38C5-46AC-8656-7F46B406CC89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$R$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.0541895706993826E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$R$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.0541895706993826E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.13902181441467173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38C5-46AC-8656-7F46B406CC89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Planilha1!$AA$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.7631245375381149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Planilha1!$AA$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>6.7631245375381149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$AA$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.12294577672314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38C5-46AC-8656-7F46B406CC89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441190912"/>
+        <c:axId val="441192576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441190912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441192576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441192576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441190912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Planilha1!$C$17,Planilha1!$F$17,Planilha1!$I$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.1675375620675495E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.081783702134567E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.1957000770866576E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Planilha1!$C$17,Planilha1!$F$17,Planilha1!$I$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>6.1675375620675495E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.081783702134567E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.1957000770866576E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Planilha1!$B$1,Planilha1!$D$1,Planilha1!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3nos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4nos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Planilha1!$C$14,Planilha1!$F$14,Planilha1!$I$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.22017683343049582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21130358727413007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22109965998573702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B55B-4A3E-AD4F-C2BE07129616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Planilha1!$L$17,Planilha1!$O$17,Planilha1!$R$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.4825829458296384E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.8155340857246902E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0541895706993826E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Planilha1!$L$17,Planilha1!$O$17,Planilha1!$R$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>1.4825829458296384E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.8155340857246902E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0541895706993826E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Planilha1!$B$1,Planilha1!$D$1,Planilha1!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3nos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4nos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Planilha1!$L$14,Planilha1!$O$14,Planilha1!$R$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.34437491175528379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18157366380430523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13902181441467173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B55B-4A3E-AD4F-C2BE07129616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>(Planilha1!$U$17,Planilha1!$X$17,Planilha1!$AA$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.2151373607760235E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2170673046704794E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.7631245375381149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>(Planilha1!$U$17,Planilha1!$X$17,Planilha1!$AA$17)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.2151373607760235E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.2170673046704794E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.7631245375381149E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Planilha1!$B$1,Planilha1!$D$1,Planilha1!$G$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3nos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4nos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5nos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Planilha1!$U$14,Planilha1!$X$14,Planilha1!$AA$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81349596531350488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38024059807023303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12294577672314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B55B-4A3E-AD4F-C2BE07129616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441190912"/>
+        <c:axId val="441192576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441190912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441192576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441192576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -739,42 +4660,50 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
@@ -1281,20 +5210,3541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>479066</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>49032</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>345716</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>39507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>174266</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9276</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40916</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1314,6 +8764,272 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160269</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9E2699-736D-4E5B-8938-7E38BB440755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>150744</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374E96FF-37C1-4757-87DA-DC2E2F0A78FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>59748</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>364547</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>150744</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C93A030-2AFE-4B6B-8BC9-226258099E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300318</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>150744</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764E54F2-9BD5-427E-99EC-8C04DF4688F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>221877</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63E9A5D-298A-418B-BBEC-93238D46016E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>300317</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>150744</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C047DCF8-A7B3-4082-807C-1628C3AD1A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>300317</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>150744</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F7F479-1C17-43DC-9499-19C476080666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1591,9 +9307,9 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +9350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +9391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1716,7 +9432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +9473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +9514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +9555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1880,7 +9596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1921,7 +9637,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -1962,7 +9678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2003,7 +9719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2044,7 +9760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2085,7 +9801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2126,7 +9842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2167,7 +9883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2208,7 +9924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2249,7 +9965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2290,7 +10006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -2340,13 +10056,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD572A1-1B88-4C44-B9B2-6919B0F3C5C4}">
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="M22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +10129,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +10195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -2540,7 +10259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-8.3856E-2</v>
       </c>
@@ -2632,7 +10351,7 @@
         <v>0.17180225791589585</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-9.0644000000000002E-2</v>
       </c>
@@ -2724,7 +10443,7 @@
         <v>0.379492</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-9.0644000000000002E-2</v>
       </c>
@@ -2816,7 +10535,7 @@
         <v>8.1546999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-9.0644000000000002E-2</v>
       </c>
@@ -2908,7 +10627,7 @@
         <v>8.1546999999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-9.0644000000000002E-2</v>
       </c>
@@ -3000,7 +10719,7 @@
         <v>8.1546999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-9.0644000000000002E-2</v>
       </c>
@@ -3092,7 +10811,7 @@
         <v>8.1546999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-6.5272999999999998E-2</v>
       </c>
@@ -3184,7 +10903,7 @@
         <v>0.10733450931550394</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-6.5272999999999998E-2</v>
       </c>
@@ -3276,7 +10995,7 @@
         <v>8.1546999999999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-9.0644000000000002E-2</v>
       </c>
@@ -3368,7 +11087,7 @@
         <v>8.1546999999999994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.5272999999999998E-2</v>
       </c>
@@ -3460,76 +11179,76 @@
         <v>8.1546999999999994E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <f>AVERAGE(C4:C13)</f>
         <v>0.22017683343049582</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="11">
         <f>AVERAGE(F4:F13)</f>
         <v>0.21130358727413007</v>
       </c>
       <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="11">
         <f>AVERAGE(I4:I13)</f>
         <v>0.22109965998573702</v>
       </c>
       <c r="K14" t="s">
         <v>66</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="11">
         <f>AVERAGE(L4:L13)</f>
         <v>0.34437491175528379</v>
       </c>
       <c r="N14" t="s">
         <v>66</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="11">
         <f>AVERAGE(O4:O13)</f>
         <v>0.18157366380430523</v>
       </c>
       <c r="Q14" t="s">
         <v>66</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="11">
         <f>AVERAGE(R4:R13)</f>
         <v>0.13902181441467173</v>
       </c>
       <c r="T14" t="s">
         <v>66</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="11">
         <f>AVERAGE(U4:U13)</f>
         <v>0.81349596531350488</v>
       </c>
       <c r="W14" t="s">
         <v>66</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="11">
         <f>AVERAGE(X4:X13)</f>
         <v>0.38024059807023303</v>
       </c>
       <c r="Z14" t="s">
         <v>66</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="11">
         <f>AVERAGE(AA4:AA13)</f>
         <v>0.12294577672314</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <f>_xlfn.STDEV.S(C4:C13)</f>
         <v>8.6216230116613526E-3</v>
       </c>
@@ -3543,124 +11262,124 @@
       <c r="H16" t="s">
         <v>67</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="11">
         <f>_xlfn.STDEV.S(I4:I13)</f>
         <v>1.005889510121223E-2</v>
       </c>
       <c r="K16" t="s">
         <v>67</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="11">
         <f>_xlfn.STDEV.S(L4:L13)</f>
         <v>2.0725080494161552E-2</v>
       </c>
       <c r="N16" t="s">
         <v>67</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="11">
         <f>_xlfn.STDEV.S(O4:O13)</f>
         <v>1.0925363298366183E-2</v>
       </c>
       <c r="Q16" t="s">
         <v>67</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="11">
         <f>_xlfn.STDEV.S(R4:R13)</f>
         <v>2.8715590127868573E-2</v>
       </c>
       <c r="T16" t="s">
         <v>67</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="11">
         <f>_xlfn.STDEV.S(U4:U13)</f>
         <v>4.4944521174551562E-2</v>
       </c>
       <c r="W16" t="s">
         <v>67</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="11">
         <f>_xlfn.STDEV.S(X4:X13)</f>
         <v>7.2929572093687459E-2</v>
       </c>
       <c r="Z16" t="s">
         <v>67</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="11">
         <f>_xlfn.STDEV.S(AA4:AA13)</f>
         <v>9.4541961936626021E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <f>_xlfn.CONFIDENCE.T(0.05,C16,10)</f>
         <v>6.1675375620675495E-3</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="11">
         <f>_xlfn.CONFIDENCE.T(0.05,F16,10)</f>
         <v>6.081783702134567E-3</v>
       </c>
       <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="11">
         <f>_xlfn.CONFIDENCE.T(0.05,I16,10)</f>
         <v>7.1957000770866576E-3</v>
       </c>
       <c r="K17" t="s">
         <v>68</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="11">
         <f>_xlfn.CONFIDENCE.T(0.05,L16,10)</f>
         <v>1.4825829458296384E-2</v>
       </c>
       <c r="N17" t="s">
         <v>68</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="11">
         <f>_xlfn.CONFIDENCE.T(0.05,O16,10)</f>
         <v>7.8155340857246902E-3</v>
       </c>
       <c r="Q17" t="s">
         <v>68</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="11">
         <f>_xlfn.CONFIDENCE.T(0.05,R16,10)</f>
         <v>2.0541895706993826E-2</v>
       </c>
       <c r="T17" t="s">
         <v>68</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="11">
         <f>_xlfn.CONFIDENCE.T(0.05,U16,10)</f>
         <v>3.2151373607760235E-2</v>
       </c>
       <c r="W17" t="s">
         <v>68</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="11">
         <f>_xlfn.CONFIDENCE.T(0.05,X16,10)</f>
         <v>5.2170673046704794E-2</v>
       </c>
       <c r="Z17" t="s">
         <v>68</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="11">
         <f>_xlfn.CONFIDENCE.T(0.05,AA16,10)</f>
         <v>6.7631245375381149E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
